--- a/all_annotated/RDUS_Q4_2017_2.xlsx
+++ b/all_annotated/RDUS_Q4_2017_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC99438-7490-AD47-A6C5-B9B0EB87545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -178,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +248,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -288,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +334,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +386,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,14 +579,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -588,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -600,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -620,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -632,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -652,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -664,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -684,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -696,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -713,13 +765,13 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -728,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -745,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -760,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -783,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -792,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -809,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -824,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -844,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -856,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -876,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -888,7 +940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -908,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -920,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -937,13 +989,13 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -952,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -972,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -984,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -998,25 +1050,25 @@
         <v>47</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1036,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1048,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1068,10 +1120,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1080,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1100,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1112,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1132,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1144,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1161,13 +1213,13 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>2</v>
